--- a/qt/python/lottery_tickets/welfare_lottery/购买数据.xlsx
+++ b/qt/python/lottery_tickets/welfare_lottery/购买数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="13620"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>玩法</t>
   </si>
@@ -35,18 +35,24 @@
   <si>
     <t>中奖金额(元)</t>
   </si>
+  <si>
+    <t>双色球</t>
+  </si>
+  <si>
+    <t>05 10 12 17 23 30 + 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +99,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -253,6 +252,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,6 +318,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,18 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,148 +533,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,15 +1033,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1063,6 +1063,127 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4">
+        <v>22102</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5">
+        <v>22103</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6">
+        <v>22104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7">
+        <v>22105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8">
+        <v>22106</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9">
+        <v>22107</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10">
+        <v>22108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11">
+        <v>22109</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12">
+        <v>22110</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>22111</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <v>22112</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15">
+        <v>22113</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16">
+        <v>22114</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>22115</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>22116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>22117</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>22118</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>22119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>22120</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <v>22121</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <v>22122</v>
       </c>
     </row>
   </sheetData>
